--- a/biology/Botanique/Caprifoliaceae/Caprifoliaceae.xlsx
+++ b/biology/Botanique/Caprifoliaceae/Caprifoliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caprifoliacées (Caprifoliaceae) sont une famille de plantes dicotylédones de l'ordre des Dipsacales. Ce sont des arbustes, des petits arbres, des lianes et plus rarement des plantes herbacées des zones tempérées à tropicales (montagnes).
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type « historique » Caprifolium, composé du latin capra, chèvre, et folium, feuille, qui, d'après Théis est un « Nom métaphorique ; c'est-à-dire, signifiant (feuille) qui grimpe comme une chèvre ». Cette interprétation est confirmée par son nom commun français « chèvre-feuille », lequel est, mot à mot, une traduction littérale du mot latin[3].
-Ce nom de genre fut utilisé à la fin des années 1600 par Tournefort[4],[5], et a été remplacé en 1703 par Charles Plumier en Lonicera, qu'il nomma en hommage à Adam Lonitzer (1528-1586), botaniste et médecin allemand[6],[7]. Linné a gardé ce nom de genre tout en mentionnant, comme épithète spécifique pour l’espèce l’espèce type du genre, le nom générique originel Lonicera caprifolium[8],[note 1].
-En 1888 Legrand, déplorant le remplacement des noms de genre de Tournefort nous dit « Si Linné est le créateur de la combinaison binaire, n'oublions pas que Tournefort est le créateur du genre » et il cite notamment, en le regrettant, le remplacement de Caprifolium par Lonicera[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type « historique » Caprifolium, composé du latin capra, chèvre, et folium, feuille, qui, d'après Théis est un « Nom métaphorique ; c'est-à-dire, signifiant (feuille) qui grimpe comme une chèvre ». Cette interprétation est confirmée par son nom commun français « chèvre-feuille », lequel est, mot à mot, une traduction littérale du mot latin.
+Ce nom de genre fut utilisé à la fin des années 1600 par Tournefort et a été remplacé en 1703 par Charles Plumier en Lonicera, qu'il nomma en hommage à Adam Lonitzer (1528-1586), botaniste et médecin allemand,. Linné a gardé ce nom de genre tout en mentionnant, comme épithète spécifique pour l’espèce l’espèce type du genre, le nom générique originel Lonicera caprifolium,[note 1].
+En 1888 Legrand, déplorant le remplacement des noms de genre de Tournefort nous dit « Si Linné est le créateur de la combinaison binaire, n'oublions pas que Tournefort est le créateur du genre » et il cite notamment, en le regrettant, le remplacement de Caprifolium par Lonicera.
 </t>
         </is>
       </c>
@@ -544,19 +558,21 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique de Cronquist (1981), elle comprend environ 420 espèces réparties en 15 à 37 genres, dans l'ordre des Dipsacales.
-La classification phylogénétique APG (1998)[10] a fait éclater cette famille, toujours dans les Dipsacales :
+La classification phylogénétique APG (1998) a fait éclater cette famille, toujours dans les Dipsacales :
 Les genres Sambucus (sureaux) et Viburnum (viornes) font partie des Adoxacées
 Les genres Carlemannia et Silvianthus forment une nouvelle famille, les Carlemanniacées.
 Abelia, Dipelta, Kolkwitzia et Linnaea constituent la famille des Linnaéacées
 Diervilla et Weigela forment celle des Diervillacées.
 Il ne reste donc plus dans cette famille que 220 espèces réparties dans les cinq genres suivants : Heptacodium, Leycesteria, Lonicera, Symphoricarpos, Triosteum.
-La classification phylogénétique APG II (2003)[11] offre deux options :
+La classification phylogénétique APG II (2003) offre deux options :
 stricto sensu, avec les 220 espèces réparties en cinq genres ;
 lato sensu, en incluant toutes les plantes autrefois assignées aux familles Diervillacées, Dipsacacées, Linnaéacées et Valérianacées, et les Morinacées.
-La classification phylogénétique APG III (2009)[12] et la classification phylogénétique APG IV (2016)[13] incluent dans cette famille les genres précédemment placés dans les familles Diervillaceae, Dipsacaceae, Linnaeaceae, Valerianaceae. Les Morinacées sont de nouveau assignés à cette famille.
+La classification phylogénétique APG III (2009) et la classification phylogénétique APG IV (2016) incluent dans cette famille les genres précédemment placés dans les familles Diervillaceae, Dipsacaceae, Linnaeaceae, Valerianaceae. Les Morinacées sont de nouveau assignés à cette famille.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (31 mars 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (31 mars 2021) :
 Caprifolioideae
 Diervilloideae
 Dipsacoideae
@@ -621,9 +639,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (31 mars 2021)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (31 mars 2021) (Attention liste brute contenant possiblement des synonymes) :
 Abelia
 Centranthus
 Cephalaria
@@ -654,7 +674,7 @@
 Valerianella
 Weigela
 Zabelia
-Selon Tropicos                                           (31 mars 2021)[14] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mars 2021) (Attention liste brute contenant possiblement des synonymes) :
 Abelia R. Br.
 Acaenops Schrad. ex Steud.
 Acanthocalyx (DC.) Tiegh.
